--- a/TonganZhao/PaulShinn/Janus/map-worklist.xlsx
+++ b/TonganZhao/PaulShinn/Janus/map-worklist.xlsx
@@ -18,16 +18,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -38,7 +35,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -46,21 +43,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -426,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E117"/>
+  <dimension ref="A1:E116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -435,46 +423,56 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>4</v>
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Well</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Dest</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>DestWell</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Volume</t>
+        </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Source</t>
+          <t>NCATS_079</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Well</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Dest</t>
+          <t>384-1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>DestWell</t>
+          <t>33</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Volume</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -486,7 +484,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -496,7 +494,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>35</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -513,7 +511,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -523,7 +521,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>37</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -540,7 +538,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -550,7 +548,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>39</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -567,7 +565,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -577,7 +575,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>41</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -594,7 +592,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -604,7 +602,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>43</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -621,7 +619,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -631,7 +629,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>45</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -648,7 +646,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -658,7 +656,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>47</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -675,7 +673,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -685,7 +683,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>34</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -702,7 +700,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -712,7 +710,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>36</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -729,7 +727,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -739,7 +737,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>38</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -756,7 +754,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -766,7 +764,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>40</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -783,7 +781,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -793,7 +791,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>42</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -810,7 +808,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -820,7 +818,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>44</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -837,7 +835,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -847,7 +845,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>46</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -864,7 +862,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -874,7 +872,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>48</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -891,7 +889,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -901,7 +899,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>209</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -918,7 +916,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -928,7 +926,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>211</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -945,7 +943,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -955,7 +953,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>213</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -972,7 +970,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -982,7 +980,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>215</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -999,7 +997,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1009,7 +1007,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>217</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1026,7 +1024,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1036,7 +1034,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>219</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1053,7 +1051,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>23</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1063,7 +1061,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>221</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1080,7 +1078,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1090,7 +1088,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>223</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1107,7 +1105,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1117,7 +1115,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>210</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1134,7 +1132,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1144,7 +1142,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>212</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1161,7 +1159,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1171,7 +1169,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>214</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1188,7 +1186,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>28</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1198,7 +1196,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>216</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1215,7 +1213,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>29</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1225,7 +1223,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>218</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1242,7 +1240,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>30</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1252,7 +1250,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>220</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1269,7 +1267,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1279,7 +1277,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>222</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1296,7 +1294,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>32</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1306,7 +1304,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>224</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1323,17 +1321,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>384-1</t>
+          <t>384-2</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>33</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1350,7 +1348,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1360,7 +1358,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>35</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1377,7 +1375,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>35</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1387,7 +1385,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>37</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1404,7 +1402,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>36</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1414,7 +1412,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>39</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1431,7 +1429,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>37</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1441,7 +1439,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>41</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1458,7 +1456,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1468,7 +1466,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>43</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1485,7 +1483,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1495,7 +1493,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>45</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1512,7 +1510,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1522,7 +1520,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>47</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1539,7 +1537,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>41</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1549,7 +1547,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>34</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1566,7 +1564,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>42</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1576,7 +1574,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>36</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1593,7 +1591,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1603,7 +1601,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>38</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1620,7 +1618,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>44</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1630,7 +1628,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>40</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1647,7 +1645,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1657,7 +1655,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>42</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1674,7 +1672,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>46</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1684,7 +1682,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>44</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -1701,17 +1699,17 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>384-2</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
           <t>46</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>384-2</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>44</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -1728,7 +1726,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>48</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1738,7 +1736,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>48</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -1755,7 +1753,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>49</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1765,7 +1763,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>209</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -1782,7 +1780,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>50</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1792,7 +1790,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>211</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -1809,7 +1807,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1819,7 +1817,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>213</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -1836,7 +1834,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>52</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1846,7 +1844,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>215</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -1863,7 +1861,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>53</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1873,7 +1871,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>217</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -1890,7 +1888,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1900,7 +1898,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>219</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -1917,7 +1915,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>55</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1927,7 +1925,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>221</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -1944,7 +1942,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>56</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1954,7 +1952,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>223</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -1971,7 +1969,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>57</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1981,7 +1979,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>210</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -1998,7 +1996,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>58</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2008,7 +2006,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>212</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2025,7 +2023,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>59</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2035,7 +2033,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>214</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2052,7 +2050,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>60</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2062,7 +2060,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>216</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2079,7 +2077,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2089,7 +2087,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>218</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2106,7 +2104,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2116,7 +2114,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>220</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -2133,7 +2131,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>63</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2143,7 +2141,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>222</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -2160,7 +2158,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>64</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2170,7 +2168,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>224</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -2187,17 +2185,17 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>65</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>384-2</t>
+          <t>384-3</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>33</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -2214,7 +2212,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>66</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2224,7 +2222,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>35</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -2241,7 +2239,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>67</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2251,7 +2249,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>37</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -2268,7 +2266,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>68</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2278,7 +2276,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>39</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -2295,7 +2293,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>69</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2305,7 +2303,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>41</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -2322,7 +2320,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>70</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2332,7 +2330,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>43</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -2349,7 +2347,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>71</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2359,7 +2357,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>45</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -2376,7 +2374,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>72</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2386,7 +2384,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>47</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -2403,7 +2401,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>73</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2413,7 +2411,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>34</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -2430,7 +2428,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>74</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2440,7 +2438,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>36</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -2457,7 +2455,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>75</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2467,7 +2465,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>38</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -2484,7 +2482,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>76</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2494,7 +2492,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>40</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -2511,7 +2509,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>77</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2521,7 +2519,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>42</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -2538,7 +2536,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>78</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2548,7 +2546,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>44</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -2565,7 +2563,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>79</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2575,7 +2573,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>46</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -2592,7 +2590,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>80</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -2602,7 +2600,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>48</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -2619,7 +2617,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>81</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -2629,7 +2627,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>209</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -2646,7 +2644,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>82</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -2656,7 +2654,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>211</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -2673,7 +2671,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>83</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -2683,7 +2681,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>213</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -2700,7 +2698,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>84</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -2710,7 +2708,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>215</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -2727,7 +2725,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>85</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -2737,7 +2735,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>217</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -2754,7 +2752,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>86</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -2764,7 +2762,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>219</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -2781,7 +2779,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>87</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -2791,7 +2789,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>221</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -2808,7 +2806,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>88</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -2818,7 +2816,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>223</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -2835,7 +2833,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>89</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -2845,7 +2843,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>210</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -2862,7 +2860,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>90</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -2872,7 +2870,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>212</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -2889,7 +2887,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>91</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -2899,7 +2897,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>214</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -2916,7 +2914,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>92</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -2926,7 +2924,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>216</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -2943,7 +2941,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>93</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -2953,7 +2951,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>218</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -2970,7 +2968,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>94</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -2980,7 +2978,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>220</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -2997,7 +2995,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>95</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3007,7 +3005,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>222</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -3024,7 +3022,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>96</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -3034,7 +3032,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>224</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -3046,22 +3044,22 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>NCATS_079</t>
+          <t>NCATS_192</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>384-3</t>
+          <t>384-4</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>33</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -3078,7 +3076,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -3088,7 +3086,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>35</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -3105,7 +3103,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -3115,7 +3113,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>37</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -3132,7 +3130,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -3142,7 +3140,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>39</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -3159,7 +3157,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -3169,7 +3167,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>41</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -3186,7 +3184,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -3196,7 +3194,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>43</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -3213,7 +3211,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -3223,7 +3221,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>45</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -3240,7 +3238,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -3250,7 +3248,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>47</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -3267,7 +3265,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -3277,7 +3275,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>34</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -3294,7 +3292,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -3304,7 +3302,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>36</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -3321,7 +3319,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -3331,7 +3329,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>38</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -3348,7 +3346,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -3358,7 +3356,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>40</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -3375,7 +3373,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -3385,7 +3383,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>42</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -3402,7 +3400,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -3412,7 +3410,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>44</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -3429,7 +3427,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -3439,7 +3437,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>46</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -3456,7 +3454,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -3466,7 +3464,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>48</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -3483,7 +3481,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -3493,7 +3491,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>209</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -3510,7 +3508,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -3520,7 +3518,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>210</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -3537,7 +3535,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -3547,37 +3545,10 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>211</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>NCATS_192</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>384-4</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>211</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
         <is>
           <t>10</t>
         </is>
@@ -3594,7 +3565,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F116"/>
+  <dimension ref="A1:F115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3603,34 +3574,46 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>5</v>
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>0403487407</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>NCGC00856413-01</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>10mM</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>384-1</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>A03</t>
+        </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0403487407</t>
+          <t>0344126360</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>NCGC00856413-01</t>
+          <t>NCGC00856414-01</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -3645,24 +3628,24 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>A03</t>
+          <t>C03</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>0344126360</t>
+          <t>0344126344</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>NCGC00856414-01</t>
+          <t>NCGC00856415-01</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -3677,24 +3660,24 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>37</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>C03</t>
+          <t>E03</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>0344126344</t>
+          <t>0344126698</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>NCGC00856415-01</t>
+          <t>NCGC00856416-01</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -3709,24 +3692,24 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>E03</t>
+          <t>G03</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0344126698</t>
+          <t>0344126741</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NCGC00856416-01</t>
+          <t>NCGC00856417-01</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -3741,24 +3724,24 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>41</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>G03</t>
+          <t>I03</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>0344126741</t>
+          <t>0344126390</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>NCGC00856417-01</t>
+          <t>NCGC00856412-01</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -3773,24 +3756,24 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>43</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>I03</t>
+          <t>K03</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>0344126390</t>
+          <t>0344125286</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>NCGC00856412-01</t>
+          <t>NCGC00856447-01</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -3805,24 +3788,24 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>45</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>K03</t>
+          <t>M03</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>0344125286</t>
+          <t>0403487402</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>NCGC00856447-01</t>
+          <t>NCGC00856445-01</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -3837,24 +3820,24 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>M03</t>
+          <t>O03</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>0403487402</t>
+          <t>0403487396</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>NCGC00856445-01</t>
+          <t>NCGC00856440-01</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -3869,24 +3852,24 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>O03</t>
+          <t>B03</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>0403487396</t>
+          <t>0403487418</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>NCGC00856440-01</t>
+          <t>NCGC00856435-01</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -3901,24 +3884,24 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>36</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>B03</t>
+          <t>D03</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>0403487418</t>
+          <t>0403487415</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>NCGC00856435-01</t>
+          <t>NCGC00856581-01</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -3933,24 +3916,24 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>38</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>D03</t>
+          <t>F03</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>0403487415</t>
+          <t>0403487423</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>NCGC00856581-01</t>
+          <t>NCGC00856436-01</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -3965,24 +3948,24 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>40</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>F03</t>
+          <t>H03</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>0403487423</t>
+          <t>0344125262</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>NCGC00856436-01</t>
+          <t>NCGC00856531-01</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -3997,24 +3980,24 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>42</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>H03</t>
+          <t>J03</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>0344125262</t>
+          <t>0344125302</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>NCGC00856531-01</t>
+          <t>NCGC00856443-01</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -4029,24 +4012,24 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>J03</t>
+          <t>L03</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>0344125302</t>
+          <t>0344125294</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>NCGC00856443-01</t>
+          <t>NCGC00856438-01</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -4061,24 +4044,24 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>L03</t>
+          <t>N03</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>0344125294</t>
+          <t>0403487410</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>NCGC00856438-01</t>
+          <t>NCGC00856441-01</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -4093,24 +4076,24 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>48</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>N03</t>
+          <t>P03</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>0403487410</t>
+          <t>0403487394</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>NCGC00856441-01</t>
+          <t>NCGC00685598-02</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -4125,24 +4108,24 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>209</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>P03</t>
+          <t>A14</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>0403487394</t>
+          <t>0403487403</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>NCGC00685598-02</t>
+          <t>NCGC00856576-01</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -4157,24 +4140,24 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>211</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>A14</t>
+          <t>C14</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>0403487403</t>
+          <t>0403487404</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>NCGC00856576-01</t>
+          <t>NCGC00856442-01</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -4189,24 +4172,24 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>213</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>C14</t>
+          <t>E14</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>0403487404</t>
+          <t>0403488140</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>NCGC00856442-01</t>
+          <t>NCGC00856446-01</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -4221,24 +4204,24 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>215</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>E14</t>
+          <t>G14</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>0403488140</t>
+          <t>0344125292</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>NCGC00856446-01</t>
+          <t>NCGC00856533-01</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -4253,24 +4236,24 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>217</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>G14</t>
+          <t>I14</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>0344125292</t>
+          <t>0344124849</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>NCGC00856533-01</t>
+          <t>NCGC00856537-01</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -4285,24 +4268,24 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>219</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>I14</t>
+          <t>K14</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>0344124849</t>
+          <t>0344125722</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>NCGC00856537-01</t>
+          <t>NCGC00856537-02</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -4317,24 +4300,24 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>221</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>K14</t>
+          <t>M14</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>0344125722</t>
+          <t>0344125763</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>NCGC00856537-02</t>
+          <t>NCGC00856543-01</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -4349,24 +4332,24 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>223</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>M14</t>
+          <t>O14</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>0344125763</t>
+          <t>0344124857</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>NCGC00856543-01</t>
+          <t>NCGC00856545-01</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -4381,24 +4364,24 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>210</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>O14</t>
+          <t>B14</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>0344124857</t>
+          <t>0344126739</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>NCGC00856545-01</t>
+          <t>NCGC00856556-01</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -4413,24 +4396,24 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>212</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>B14</t>
+          <t>D14</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>0344126739</t>
+          <t>0344126690</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>NCGC00856556-01</t>
+          <t>NCGC00856547-01</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -4445,24 +4428,24 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>214</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>D14</t>
+          <t>F14</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>0344126690</t>
+          <t>0344120147</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>NCGC00856547-01</t>
+          <t>NCGC00856551-01</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -4477,24 +4460,24 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>216</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>F14</t>
+          <t>H14</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>0344120147</t>
+          <t>0344126669</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>NCGC00856551-01</t>
+          <t>NCGC00856564-01</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -4509,24 +4492,24 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>218</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>H14</t>
+          <t>J14</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>0344126669</t>
+          <t>0344126685</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>NCGC00856564-01</t>
+          <t>NCGC00856552-01</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -4541,24 +4524,24 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>220</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>J14</t>
+          <t>L14</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>0344126685</t>
+          <t>0344126661</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>NCGC00856552-01</t>
+          <t>NCGC00856565-01</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -4573,24 +4556,24 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>222</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>L14</t>
+          <t>N14</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>0344126661</t>
+          <t>0344126750</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>NCGC00856565-01</t>
+          <t>NCGC00856578-01</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -4605,24 +4588,24 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>224</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>N14</t>
+          <t>P14</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>0344126750</t>
+          <t>0344126733</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>NCGC00856578-01</t>
+          <t>NCGC00856566-01</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -4632,29 +4615,29 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>384-1</t>
+          <t>384-2</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>P14</t>
+          <t>A03</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>0344126733</t>
+          <t>0222258524</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>NCGC00856566-01</t>
+          <t>NCGC00591097-01</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -4669,24 +4652,24 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>A03</t>
+          <t>C03</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>0222258524</t>
+          <t>0331626984</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>NCGC00591097-01</t>
+          <t>NCGC00655579-01</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -4701,24 +4684,24 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>37</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>C03</t>
+          <t>E03</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>0331626984</t>
+          <t>0344145806</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>NCGC00655579-01</t>
+          <t>NCGC00856554-01</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -4733,24 +4716,24 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>E03</t>
+          <t>G03</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>0344145806</t>
+          <t>0344126352</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>NCGC00856554-01</t>
+          <t>NCGC00856579-01</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -4765,24 +4748,24 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>41</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>G03</t>
+          <t>I03</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>0344126352</t>
+          <t>0344126273</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>NCGC00856579-01</t>
+          <t>NCGC00856558-01</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -4797,24 +4780,24 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>43</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>I03</t>
+          <t>K03</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>0344126273</t>
+          <t>0344119004</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>NCGC00856558-01</t>
+          <t>NCGC00856560-01</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -4829,24 +4812,24 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>45</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>K03</t>
+          <t>M03</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>0344119004</t>
+          <t>0344118996</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>NCGC00856560-01</t>
+          <t>NCGC00856563-01</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -4861,24 +4844,24 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>M03</t>
+          <t>O03</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>0344118996</t>
+          <t>0344119012</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>NCGC00856563-01</t>
+          <t>NCGC00856561-01</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -4893,24 +4876,24 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>O03</t>
+          <t>B03</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>0344119012</t>
+          <t>0344126749</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>NCGC00856561-01</t>
+          <t>NCGC00856562-01</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -4925,24 +4908,24 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>36</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>B03</t>
+          <t>D03</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>0344126749</t>
+          <t>0344126660</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>NCGC00856562-01</t>
+          <t>NCGC00856580-01</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -4957,24 +4940,24 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>38</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>D03</t>
+          <t>F03</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>0344126660</t>
+          <t>0403487244</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>NCGC00856580-01</t>
+          <t>NCGC00856567-01</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -4989,24 +4972,24 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>40</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>F03</t>
+          <t>H03</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>0403487244</t>
+          <t>0222256551</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>NCGC00856567-01</t>
+          <t>NCGC00601665-01</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -5021,24 +5004,24 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>42</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>H03</t>
+          <t>J03</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>0222256551</t>
+          <t>0050683140</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>NCGC00601665-01</t>
+          <t>NCGC00125704-01</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -5053,24 +5036,24 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>J03</t>
+          <t>L03</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>0050683140</t>
+          <t>0344091542</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>NCGC00125704-01</t>
+          <t>NCGC00685695-01</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -5085,24 +5068,24 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>L03</t>
+          <t>N03</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>0344091542</t>
+          <t>0344073961</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>NCGC00685695-01</t>
+          <t>NCGC00689823-01</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -5117,24 +5100,24 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>48</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>N03</t>
+          <t>P03</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>0344073961</t>
+          <t>0344073583</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>NCGC00689823-01</t>
+          <t>NCGC00689777-01</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -5149,24 +5132,24 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>209</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>P03</t>
+          <t>A14</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>0344073583</t>
+          <t>0344074035</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>NCGC00689777-01</t>
+          <t>NCGC00689775-01</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -5181,24 +5164,24 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>211</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>A14</t>
+          <t>C14</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>0344074035</t>
+          <t>0344117163</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>NCGC00689775-01</t>
+          <t>NCGC00689055-01</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -5213,24 +5196,24 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>213</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>C14</t>
+          <t>E14</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>0344117163</t>
+          <t>0344076117</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>NCGC00689055-01</t>
+          <t>NCGC00685598-01</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -5245,24 +5228,24 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>215</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>E14</t>
+          <t>G14</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>0344076117</t>
+          <t>0222259311</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>NCGC00685598-01</t>
+          <t>NCGC00602080-01</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -5277,24 +5260,24 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>217</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>G14</t>
+          <t>I14</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>0222259311</t>
+          <t>0344073632</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>NCGC00602080-01</t>
+          <t>NCGC00689586-01</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -5309,24 +5292,24 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>219</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>I14</t>
+          <t>K14</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>0344073632</t>
+          <t>0222244124</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>NCGC00689586-01</t>
+          <t>NCGC00159462-20</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -5341,24 +5324,24 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>221</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>K14</t>
+          <t>M14</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>0222244124</t>
+          <t>0197555602</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>NCGC00159462-20</t>
+          <t>NCGC00508961-01</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -5373,24 +5356,24 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>223</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>M14</t>
+          <t>O14</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>0197555602</t>
+          <t>0222257421</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>NCGC00508961-01</t>
+          <t>NCGC00599959-01</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -5405,24 +5388,24 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>210</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>O14</t>
+          <t>B14</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>0222257421</t>
+          <t>0222258025</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>NCGC00599959-01</t>
+          <t>NCGC00600052-01</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -5437,24 +5420,24 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>212</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>B14</t>
+          <t>D14</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>0222258025</t>
+          <t>0344073567</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>NCGC00600052-01</t>
+          <t>NCGC00689776-01</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -5469,24 +5452,24 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>214</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>D14</t>
+          <t>F14</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>0344073567</t>
+          <t>0222255536</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>NCGC00689776-01</t>
+          <t>NCGC00538447-01</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -5501,24 +5484,24 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>216</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>F14</t>
+          <t>H14</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>0222255536</t>
+          <t>0344093828</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>NCGC00538447-01</t>
+          <t>NCGC00602080-07</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -5533,24 +5516,24 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>218</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>H14</t>
+          <t>J14</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>0344093828</t>
+          <t>0344076111</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>NCGC00602080-07</t>
+          <t>NCGC00685517-01</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -5565,24 +5548,24 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>220</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>J14</t>
+          <t>L14</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>0344076111</t>
+          <t>0344074208</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>NCGC00685517-01</t>
+          <t>NCGC00686594-01</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -5597,24 +5580,24 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>222</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>L14</t>
+          <t>N14</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>0344074208</t>
+          <t>0344073907</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>NCGC00686594-01</t>
+          <t>NCGC00687630-01</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -5629,24 +5612,24 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>224</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>N14</t>
+          <t>P14</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>0344073907</t>
+          <t>0344073940</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>NCGC00687630-01</t>
+          <t>NCGC00687751-01</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -5656,29 +5639,29 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>384-2</t>
+          <t>384-3</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>P14</t>
+          <t>A03</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>0344073940</t>
+          <t>0344073899</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>NCGC00687751-01</t>
+          <t>NCGC00687632-01</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -5693,24 +5676,24 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>A03</t>
+          <t>C03</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>0344073899</t>
+          <t>0344074190</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>NCGC00687632-01</t>
+          <t>NCGC00686605-01</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -5725,24 +5708,24 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>37</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>C03</t>
+          <t>E03</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>0344074190</t>
+          <t>0344073892</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>NCGC00686605-01</t>
+          <t>NCGC00687738-01</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -5757,24 +5740,24 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>E03</t>
+          <t>G03</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>0344073892</t>
+          <t>0344073893</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>NCGC00687738-01</t>
+          <t>NCGC00687754-01</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -5789,24 +5772,24 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>41</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>G03</t>
+          <t>I03</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>0344073893</t>
+          <t>0344073877</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>NCGC00687754-01</t>
+          <t>NCGC00687739-01</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -5821,24 +5804,24 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>43</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>I03</t>
+          <t>K03</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>0344073877</t>
+          <t>0344073885</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>NCGC00687739-01</t>
+          <t>NCGC00687746-01</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -5853,24 +5836,24 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>45</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>K03</t>
+          <t>M03</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>0344073885</t>
+          <t>0344117174</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>NCGC00687746-01</t>
+          <t>NCGC00687815-01</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -5885,24 +5868,24 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>M03</t>
+          <t>O03</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>0344117174</t>
+          <t>0344117429</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>NCGC00687815-01</t>
+          <t>NCGC00689056-01</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -5917,24 +5900,24 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>O03</t>
+          <t>B03</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>0344117429</t>
+          <t>0344073599</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>NCGC00689056-01</t>
+          <t>NCGC00689772-01</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -5949,24 +5932,24 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>36</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>B03</t>
+          <t>D03</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>0344073599</t>
+          <t>0344117344</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>NCGC00689772-01</t>
+          <t>NCGC00689504-01</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -5981,24 +5964,24 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>38</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>D03</t>
+          <t>F03</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>0344117344</t>
+          <t>0344073591</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>NCGC00689504-01</t>
+          <t>NCGC00689774-01</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -6013,24 +5996,24 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>40</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>F03</t>
+          <t>H03</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>0344073591</t>
+          <t>0344145709</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>NCGC00689774-01</t>
+          <t>NCGC00689818-01</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -6045,24 +6028,24 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>42</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>H03</t>
+          <t>J03</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>0344145709</t>
+          <t>0344145756</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>NCGC00689818-01</t>
+          <t>NCGC00689820-01</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -6077,24 +6060,24 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>J03</t>
+          <t>L03</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>0344145756</t>
+          <t>0403487454</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>NCGC00689820-01</t>
+          <t>NCGC00856444-01</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -6109,24 +6092,24 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>L03</t>
+          <t>N03</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>0403487454</t>
+          <t>0344125270</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>NCGC00856444-01</t>
+          <t>NCGC00856530-01</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -6141,24 +6124,24 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>48</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>N03</t>
+          <t>P03</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>0344125270</t>
+          <t>0344125276</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>NCGC00856530-01</t>
+          <t>NCGC00856536-01</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -6173,24 +6156,24 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>209</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>P03</t>
+          <t>A14</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>0344125276</t>
+          <t>0344125309</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>NCGC00856536-01</t>
+          <t>NCGC00856539-01</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -6205,24 +6188,24 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>211</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>A14</t>
+          <t>C14</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>0344125309</t>
+          <t>0344126658</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>NCGC00856539-01</t>
+          <t>NCGC00856557-01</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -6237,24 +6220,24 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>213</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>C14</t>
+          <t>E14</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>0344126658</t>
+          <t>0344126674</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>NCGC00856557-01</t>
+          <t>NCGC00856582-01</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -6269,24 +6252,24 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>215</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>E14</t>
+          <t>G14</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>0344126674</t>
+          <t>0344126706</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>NCGC00856582-01</t>
+          <t>NCGC00685598-03</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -6301,24 +6284,24 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>217</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>G14</t>
+          <t>I14</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>0344126706</t>
+          <t>0344126747</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>NCGC00685598-03</t>
+          <t>NCGC00856553-01</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -6333,24 +6316,24 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>219</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>I14</t>
+          <t>K14</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>0344126747</t>
+          <t>0344126666</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>NCGC00856553-01</t>
+          <t>NCGC00856555-01</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -6365,24 +6348,24 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>221</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>K14</t>
+          <t>M14</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>0344126666</t>
+          <t>0344126398</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>NCGC00856555-01</t>
+          <t>NCGC00856559-01</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -6397,24 +6380,24 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>223</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>M14</t>
+          <t>O14</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>0344126398</t>
+          <t>0344124880</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>NCGC00856559-01</t>
+          <t>NCGC00689820-02</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -6429,24 +6412,24 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>210</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>O14</t>
+          <t>B14</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>0344124880</t>
+          <t>0222257423</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>NCGC00689820-02</t>
+          <t>NCGC00599954-01</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -6461,24 +6444,24 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>212</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>B14</t>
+          <t>D14</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>0222257423</t>
+          <t>0344123468</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>NCGC00599954-01</t>
+          <t>NCGC00602080-08</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -6493,24 +6476,24 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>214</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>D14</t>
+          <t>F14</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>0344123468</t>
+          <t>0344094208</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>NCGC00602080-08</t>
+          <t>NCGC00508967-02</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -6525,24 +6508,24 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>216</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>F14</t>
+          <t>H14</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>0344094208</t>
+          <t>0222255845</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>NCGC00508967-02</t>
+          <t>NCGC00589771-01</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -6557,24 +6540,24 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>218</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>H14</t>
+          <t>J14</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>0222255845</t>
+          <t>0222255931</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>NCGC00589771-01</t>
+          <t>NCGC00589504-01</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -6589,24 +6572,24 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>220</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>J14</t>
+          <t>L14</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>0222255931</t>
+          <t>0222255960</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>NCGC00589504-01</t>
+          <t>NCGC00589565-01</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -6621,24 +6604,24 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>222</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>L14</t>
+          <t>N14</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>0222255960</t>
+          <t>0222257411</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>NCGC00589565-01</t>
+          <t>NCGC00599953-01</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -6653,24 +6636,24 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>224</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>N14</t>
+          <t>P14</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>0222257411</t>
+          <t>0222258573</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>NCGC00599953-01</t>
+          <t>NCGC00591096-01</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -6680,29 +6663,29 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>384-3</t>
+          <t>384-4</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>P14</t>
+          <t>A03</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>0222258573</t>
+          <t>0344075455</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>NCGC00591096-01</t>
+          <t>NCGC00666292-01</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -6717,24 +6700,24 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>A03</t>
+          <t>C03</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>0344075455</t>
+          <t>0222255956</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>NCGC00666292-01</t>
+          <t>NCGC00589718-01</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -6749,24 +6732,24 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>37</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>C03</t>
+          <t>E03</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>0222255956</t>
+          <t>0344073900</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>NCGC00589718-01</t>
+          <t>NCGC00687740-01</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -6781,24 +6764,24 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>E03</t>
+          <t>G03</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>0344073900</t>
+          <t>0344073901</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>NCGC00687740-01</t>
+          <t>NCGC00687750-01</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -6813,24 +6796,24 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>41</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>G03</t>
+          <t>I03</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>0344073901</t>
+          <t>0344073924</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>NCGC00687750-01</t>
+          <t>NCGC00687744-01</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -6845,24 +6828,24 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>43</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>I03</t>
+          <t>K03</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>0344073924</t>
+          <t>0344117421</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>NCGC00687744-01</t>
+          <t>NCGC00689047-01</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -6877,24 +6860,24 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>45</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>K03</t>
+          <t>M03</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>0344117421</t>
+          <t>0344119040</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>NCGC00689047-01</t>
+          <t>NCGC00841583-01</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -6909,24 +6892,24 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>M03</t>
+          <t>O03</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>0344119040</t>
+          <t>0344119048</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>NCGC00841583-01</t>
+          <t>NCGC00841584-01</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -6941,24 +6924,24 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>O03</t>
+          <t>B03</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>0344119048</t>
+          <t>0344119031</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>NCGC00841584-01</t>
+          <t>NCGC00841587-01</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -6973,24 +6956,24 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>36</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>B03</t>
+          <t>D03</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>0344119031</t>
+          <t>0344119032</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>NCGC00841587-01</t>
+          <t>NCGC00841586-01</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -7005,24 +6988,24 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>38</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>D03</t>
+          <t>F03</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>0344119032</t>
+          <t>0344073607</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>NCGC00841586-01</t>
+          <t>NCGC00689593-01</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -7037,24 +7020,24 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>40</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>F03</t>
+          <t>H03</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>0344073607</t>
+          <t>0344073575</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>NCGC00689593-01</t>
+          <t>NCGC00689588-01</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -7069,24 +7052,24 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>42</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>H03</t>
+          <t>J03</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>0344073575</t>
+          <t>0344074010</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>NCGC00689588-01</t>
+          <t>NCGC00689899-01</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -7101,24 +7084,24 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>J03</t>
+          <t>L03</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>0344074010</t>
+          <t>0344073234</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>NCGC00689899-01</t>
+          <t>NCGC00856373-01</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -7133,24 +7116,24 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>L03</t>
+          <t>N03</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>0344073234</t>
+          <t>0344073180</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>NCGC00856373-01</t>
+          <t>NCGC00856376-01</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -7165,24 +7148,24 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>48</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>N03</t>
+          <t>P03</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>0344073180</t>
+          <t>0222241880</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>NCGC00856376-01</t>
+          <t>NCGC00856374-01</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -7197,24 +7180,24 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>209</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>P03</t>
+          <t>A14</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>0222241880</t>
+          <t>0222220966</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>NCGC00856374-01</t>
+          <t>NCGC00856375-01</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -7229,24 +7212,24 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>210</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>A14</t>
+          <t>B14</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>0222220966</t>
+          <t>0222220944</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>NCGC00856375-01</t>
+          <t>NCGC00856372-01</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -7261,42 +7244,10 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>211</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
-        <is>
-          <t>B14</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>0222220944</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>NCGC00856372-01</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>10mM</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>384-4</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>211</t>
-        </is>
-      </c>
-      <c r="F116" t="inlineStr">
         <is>
           <t>C14</t>
         </is>
